--- a/2022/03-klobouky/Klobucká kola 2022.xlsx
+++ b/2022/03-klobouky/Klobucká kola 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="124">
   <si>
     <t xml:space="preserve">KATEGORIE</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t xml:space="preserve">Matěj Špalek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOLOKROUŽEK Zlín</t>
   </si>
   <si>
     <t xml:space="preserve">Sebastian Švach</t>
@@ -416,7 +419,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -473,6 +476,13 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -523,7 +533,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,6 +570,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -587,7 +601,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1062,7 +1076,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1079,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -1119,7 +1133,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2008</v>
@@ -1127,7 +1141,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>1.04375</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -1139,7 +1153,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2008</v>
@@ -1147,7 +1161,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>1.04930555555556</v>
       </c>
       <c r="H5" s="6" t="n">
@@ -1159,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2009</v>
@@ -1167,7 +1181,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>1.07708333333333</v>
       </c>
       <c r="H6" s="6" t="n">
@@ -1179,7 +1193,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2009</v>
@@ -1187,7 +1201,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>1.31597222222222</v>
       </c>
       <c r="H7" s="6" t="n">
@@ -1547,7 +1561,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1564,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -1609,7 +1623,7 @@
         <v>78</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2007</v>
@@ -1617,7 +1631,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>1.65972222222222</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -2007,7 +2021,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2024,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2069,7 +2083,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2005</v>
@@ -2077,7 +2091,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>1.59027777777778</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -2467,7 +2481,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2484,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2917,7 +2931,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2934,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -2979,7 +2993,7 @@
         <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1972</v>
@@ -2987,7 +3001,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>2.00625</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -2999,7 +3013,7 @@
         <v>80</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1977</v>
@@ -3007,7 +3021,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>2.43888888888889</v>
       </c>
       <c r="H5" s="6" t="n">
@@ -3387,7 +3401,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3404,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3449,7 +3463,7 @@
         <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2004</v>
@@ -3469,7 +3483,7 @@
         <v>90</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2001</v>
@@ -3857,7 +3871,7 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3874,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -3919,7 +3933,7 @@
         <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1976</v>
@@ -3939,7 +3953,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1977</v>
@@ -3979,7 +3993,7 @@
         <v>89</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1977</v>
@@ -3999,7 +4013,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1978</v>
@@ -4019,7 +4033,7 @@
         <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1976</v>
@@ -4029,7 +4043,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4365,7 +4379,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4382,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -4427,7 +4441,7 @@
         <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>1972</v>
@@ -4447,7 +4461,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1964</v>
@@ -4467,7 +4481,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>1971</v>
@@ -4487,7 +4501,7 @@
         <v>76</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>1967</v>
@@ -4507,7 +4521,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>1972</v>
@@ -4527,7 +4541,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>1967</v>
@@ -4875,7 +4889,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5434,7 +5448,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5919,7 +5933,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6420,11 +6434,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6526,7 +6540,9 @@
       <c r="C6" s="6" t="n">
         <v>2014</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8" t="n">
@@ -6541,7 +6557,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2014</v>
@@ -6561,7 +6577,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2015</v>
@@ -6581,7 +6597,7 @@
         <v>24</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2015</v>
@@ -6601,7 +6617,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2014</v>
@@ -6621,7 +6637,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2015</v>
@@ -6641,7 +6657,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2015</v>
@@ -6661,7 +6677,7 @@
         <v>66</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2014</v>
@@ -6681,7 +6697,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2014</v>
@@ -6701,7 +6717,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2015</v>
@@ -6989,7 +7005,7 @@
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7006,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -7046,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2013</v>
@@ -7066,7 +7082,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2013</v>
@@ -7086,7 +7102,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2012</v>
@@ -7106,7 +7122,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2013</v>
@@ -7126,7 +7142,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2012</v>
@@ -7146,7 +7162,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2012</v>
@@ -7166,7 +7182,7 @@
         <v>54</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2013</v>
@@ -7186,7 +7202,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2012</v>
@@ -7206,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2012</v>
@@ -7226,7 +7242,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2012</v>
@@ -7246,7 +7262,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>2013</v>
@@ -7266,7 +7282,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="n">
         <v>2012</v>
@@ -7554,7 +7570,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7571,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -7611,7 +7627,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2010</v>
@@ -7631,7 +7647,7 @@
         <v>47</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2010</v>
@@ -7651,7 +7667,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2011</v>
@@ -7671,7 +7687,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2011</v>
@@ -7691,7 +7707,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2011</v>
@@ -7711,7 +7727,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2010</v>
@@ -7731,7 +7747,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C10" s="6" t="n">
         <v>2010</v>
@@ -7751,7 +7767,7 @@
         <v>72</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="6" t="n">
         <v>2010</v>
@@ -7771,7 +7787,7 @@
         <v>58</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6" t="n">
         <v>2011</v>
@@ -7791,7 +7807,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6" t="n">
         <v>2011</v>
@@ -8095,11 +8111,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8116,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -8156,7 +8172,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2009</v>
@@ -8164,7 +8180,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="9" t="n">
+      <c r="G4" s="10" t="n">
         <v>1.07152777777778</v>
       </c>
       <c r="H4" s="6" t="n">
@@ -8176,7 +8192,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2008</v>
@@ -8184,7 +8200,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="9" t="n">
+      <c r="G5" s="10" t="n">
         <v>1.07708333333333</v>
       </c>
       <c r="H5" s="6" t="n">
@@ -8196,7 +8212,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2008</v>
@@ -8204,7 +8220,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="9" t="n">
+      <c r="G6" s="10" t="n">
         <v>1.14583333333333</v>
       </c>
       <c r="H6" s="6" t="n">
@@ -8216,7 +8232,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2008</v>
@@ -8224,7 +8240,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="10" t="n">
         <v>1.15069444444444</v>
       </c>
       <c r="H7" s="6" t="n">
@@ -8236,7 +8252,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2008</v>
@@ -8246,7 +8262,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8592,7 +8608,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8609,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>6</v>
@@ -8649,7 +8665,7 @@
         <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="n">
         <v>2010</v>
@@ -8669,7 +8685,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>2010</v>
@@ -8689,7 +8705,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2011</v>
@@ -8709,7 +8725,7 @@
         <v>45</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>2011</v>
@@ -8729,7 +8745,7 @@
         <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>2011</v>
@@ -8749,7 +8765,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" s="6" t="n">
         <v>2010</v>

--- a/2022/03-klobouky/Klobucká kola 2022.xlsx
+++ b/2022/03-klobouky/Klobucká kola 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">Filip Hasalík</t>
   </si>
   <si>
-    <t xml:space="preserve">Marian David Šalamún</t>
+    <t xml:space="preserve">Marián David Šalamún</t>
   </si>
   <si>
     <t xml:space="preserve">Jakub Strnadel</t>
@@ -601,7 +601,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1076,7 +1076,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1561,7 +1561,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2021,7 +2021,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2481,7 +2481,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2931,7 +2931,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3401,7 +3401,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3871,7 +3871,7 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4379,7 +4379,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4889,7 +4889,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5448,7 +5448,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5933,7 +5933,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6434,11 +6434,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7001,11 +7001,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7570,7 +7570,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8115,7 +8115,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8608,7 +8608,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>

--- a/2022/03-klobouky/Klobucká kola 2022.xlsx
+++ b/2022/03-klobouky/Klobucká kola 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Předškoláci I" sheetId="1" state="visible" r:id="rId2"/>
@@ -314,7 +314,7 @@
     <t xml:space="preserve">Vojtěch Kubínek</t>
   </si>
   <si>
-    <t xml:space="preserve">Michal Szaloki</t>
+    <t xml:space="preserve">Michal Szalóki</t>
   </si>
   <si>
     <t xml:space="preserve">Matúš Behan</t>
@@ -601,7 +601,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1076,7 +1076,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -1561,7 +1561,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2021,7 +2021,7 @@
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2481,7 +2481,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -2931,7 +2931,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3401,7 +3401,7 @@
       <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -3871,7 +3871,7 @@
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4379,7 +4379,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -4889,7 +4889,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5448,7 +5448,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -5933,7 +5933,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -6438,7 +6438,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7001,11 +7001,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -7570,7 +7570,7 @@
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8115,7 +8115,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
@@ -8604,11 +8604,11 @@
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.71"/>
